--- a/sputnik/personal/ee/274ee.xlsx
+++ b/sputnik/personal/ee/274ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,7 +39,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>Начислены пени за просрочку на 141дн (2905,59 х 101 х0,1%=293,46)</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -53,9 +62,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,29 +87,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -161,51 +147,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -215,13 +163,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,33 +176,19 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,10 +497,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F15:F16"/>
+      <selection activeCell="A12" sqref="A12:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -578,402 +511,258 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43456</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>476</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>180</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43295</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43588</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="2">
+        <v>1014</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
+        <v>538</v>
+      </c>
+      <c r="E4" s="15">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>2458.6600000000003</v>
+      </c>
+      <c r="G4" s="14">
+        <f>SUM(F4,F5)</f>
+        <v>2905.59</v>
+      </c>
+      <c r="H4" s="14">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43330</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>143</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>143</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F11" si="1">D4*E4</f>
-        <v>643.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>46</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="2">
+        <v>367</v>
+      </c>
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>108.10000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43386</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>416</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>273</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>1228.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>144</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>230.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43456</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>476</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>180</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>84.600000000000009</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43588</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1014</v>
-      </c>
-      <c r="D10" s="3">
-        <f>C10-C8</f>
-        <v>538</v>
-      </c>
-      <c r="E10" s="16">
-        <v>4.57</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>2458.6600000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>367</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11-C9</f>
         <v>187</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E5" s="2">
         <v>2.39</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
         <v>446.93</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
-        <v>43588</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>43654</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C6" s="2">
         <v>1114</v>
       </c>
-      <c r="D13" s="3">
-        <f>C13-C10</f>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E6" s="15">
         <v>4.49</v>
       </c>
-      <c r="F13" s="6">
-        <f>D13*E13</f>
+      <c r="F6" s="5">
+        <f>D6*E6</f>
         <v>449</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
+      <c r="G6" s="14">
+        <f>SUM(F6,F7)</f>
+        <v>570.5</v>
+      </c>
+      <c r="H6" s="14">
+        <v>570.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C7" s="2">
         <v>417</v>
       </c>
-      <c r="D14" s="3">
-        <f>C14-C11</f>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E7" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F14" s="6">
-        <f>D14*E14</f>
+      <c r="F7" s="5">
+        <f>D7*E7</f>
         <v>121.50000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>43808</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C8" s="2">
         <v>1370</v>
       </c>
-      <c r="D15" s="3">
-        <f>C15-C13</f>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E8" s="15">
         <v>4.49</v>
       </c>
-      <c r="F15" s="6">
-        <f>D15*E15</f>
+      <c r="F8" s="5">
+        <f>D8*E8</f>
         <v>1149.44</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
+      <c r="G8" s="14">
+        <f>SUM(F8,F9)</f>
+        <v>1321.97</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C9" s="2">
         <v>488</v>
       </c>
-      <c r="D16" s="3">
-        <f>C16-C14</f>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E9" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F16" s="6">
-        <f>D16*E16</f>
+      <c r="F9" s="5">
+        <f>D9*E9</f>
         <v>172.53</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="14">
+        <f>SUM(G2:G9)</f>
+        <v>4798.0600000000004</v>
+      </c>
+      <c r="H10" s="14">
+        <f>SUM(H2:H9)</f>
+        <v>4893.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14">
+        <f>SUM(H10,-G10)</f>
+        <v>95.4399999999996</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B12:F12"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/274ee.xlsx
+++ b/sputnik/personal/ee/274ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -497,10 +497,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:I13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -729,36 +729,87 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>43958</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1591</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="2">C10-C8</f>
+        <v>221</v>
+      </c>
+      <c r="E10" s="15">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="5">
+        <f>D10*E10</f>
+        <v>992.29000000000008</v>
+      </c>
+      <c r="G10" s="14">
+        <f>SUM(F10,F11)</f>
+        <v>1111.3600000000001</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1111.3599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>537</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="5">
+        <f>D11*E11</f>
+        <v>119.07000000000001</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="14">
-        <f>SUM(G2:G9)</f>
-        <v>4798.0600000000004</v>
-      </c>
-      <c r="H10" s="14">
-        <f>SUM(H2:H9)</f>
-        <v>4893.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10" t="s">
+      <c r="G12" s="14">
+        <f>SUM(G2:G11)</f>
+        <v>5909.42</v>
+      </c>
+      <c r="H12" s="14">
+        <f>SUM(H2:H11)</f>
+        <v>6004.86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14">
-        <f>SUM(H10,-G10)</f>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14">
+        <f>SUM(H12,-G12)</f>
         <v>95.4399999999996</v>
       </c>
     </row>

--- a/sputnik/personal/ee/274ee.xlsx
+++ b/sputnik/personal/ee/274ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -497,10 +497,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -645,7 +645,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="5">
-        <f>D6*E6</f>
+        <f t="shared" ref="F6:F11" si="2">D6*E6</f>
         <v>449</v>
       </c>
       <c r="G6" s="14">
@@ -672,7 +672,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="5">
-        <f>D7*E7</f>
+        <f t="shared" si="2"/>
         <v>121.50000000000001</v>
       </c>
       <c r="G7" s="14"/>
@@ -696,7 +696,7 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="5">
-        <f>D8*E8</f>
+        <f t="shared" si="2"/>
         <v>1149.44</v>
       </c>
       <c r="G8" s="14">
@@ -723,7 +723,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="5">
-        <f>D9*E9</f>
+        <f t="shared" si="2"/>
         <v>172.53</v>
       </c>
       <c r="G9" s="14"/>
@@ -740,14 +740,14 @@
         <v>1591</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D11" si="2">C10-C8</f>
+        <f t="shared" ref="D10:D11" si="3">C10-C8</f>
         <v>221</v>
       </c>
       <c r="E10" s="15">
         <v>4.49</v>
       </c>
       <c r="F10" s="5">
-        <f>D10*E10</f>
+        <f t="shared" si="2"/>
         <v>992.29000000000008</v>
       </c>
       <c r="G10" s="14">
@@ -767,50 +767,103 @@
         <v>537</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="E11" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="5">
-        <f>D11*E11</f>
+        <f t="shared" si="2"/>
         <v>119.07000000000001</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13" t="s">
-        <v>11</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44008</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1897</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="4">C12-C10</f>
+        <v>306</v>
+      </c>
+      <c r="E12" s="15">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
+        <v>1373.94</v>
       </c>
       <c r="G12" s="14">
-        <f>SUM(G2:G11)</f>
-        <v>5909.42</v>
+        <f>SUM(F12,F13)</f>
+        <v>1565.91</v>
       </c>
       <c r="H12" s="14">
-        <f>SUM(H2:H11)</f>
-        <v>6004.86</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10" t="s">
-        <v>12</v>
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>616</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="5"/>
+        <v>191.97</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14">
-        <f>SUM(H12,-G12)</f>
-        <v>95.4399999999996</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="14">
+        <f>SUM(G2:G13)</f>
+        <v>7475.33</v>
+      </c>
+      <c r="H14" s="14">
+        <f>SUM(H2:H13)</f>
+        <v>7473.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14">
+        <f>SUM(H14,-G14)</f>
+        <v>-1.4700000000002547</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/274ee.xlsx
+++ b/sputnik/personal/ee/274ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -497,10 +497,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -833,37 +833,91 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44053</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2094</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="6">C14-C12</f>
+        <v>197</v>
+      </c>
+      <c r="E14" s="15">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="7">D14*E14</f>
+        <v>927.87</v>
+      </c>
+      <c r="G14" s="14">
+        <v>927.87</v>
+      </c>
+      <c r="H14" s="14">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>684</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="7"/>
+        <v>173.39999999999998</v>
+      </c>
+      <c r="G15" s="14">
+        <v>173.4</v>
+      </c>
+      <c r="H15" s="14">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="14">
-        <f>SUM(G2:G13)</f>
-        <v>7475.33</v>
-      </c>
-      <c r="H14" s="14">
-        <f>SUM(H2:H13)</f>
-        <v>7473.86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10" t="s">
+      <c r="G16" s="14">
+        <f>SUM(G2:G15)</f>
+        <v>8576.6</v>
+      </c>
+      <c r="H16" s="14">
+        <f>SUM(H2:H15)</f>
+        <v>8576.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14">
-        <f>SUM(H14,-G14)</f>
-        <v>-1.4700000000002547</v>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14">
+        <f>SUM(H16,-G16)</f>
+        <v>0.26000000000021828</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/274ee.xlsx
+++ b/sputnik/personal/ee/274ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -497,10 +497,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -887,37 +887,91 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44108</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2324</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="8">C16-C14</f>
+        <v>230</v>
+      </c>
+      <c r="E16" s="15">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="9">D16*E16</f>
+        <v>1083.3</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1083.3</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>785</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="8"/>
+        <v>101</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="9"/>
+        <v>257.54999999999995</v>
+      </c>
+      <c r="G17" s="14">
+        <v>257.55</v>
+      </c>
+      <c r="H17" s="14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="14">
-        <f>SUM(G2:G15)</f>
-        <v>8576.6</v>
-      </c>
-      <c r="H16" s="14">
-        <f>SUM(H2:H15)</f>
-        <v>8576.86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10" t="s">
+      <c r="G18" s="14">
+        <f>SUM(G2:G17)</f>
+        <v>9917.4499999999989</v>
+      </c>
+      <c r="H18" s="14">
+        <f>SUM(H2:H17)</f>
+        <v>9985.86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14">
-        <f>SUM(H16,-G16)</f>
-        <v>0.26000000000021828</v>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14">
+        <f>SUM(H18,-G18)</f>
+        <v>68.410000000001673</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/274ee.xlsx
+++ b/sputnik/personal/ee/274ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 01.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -92,7 +92,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -165,6 +171,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -445,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G2:G7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,31 +496,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44109</v>
+        <v>44384</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10">
-        <v>2324</v>
+        <v>2817</v>
       </c>
       <c r="D2" s="10">
-        <f t="shared" ref="D2:D7" si="0">SUM(C2,-C4)</f>
-        <v>230</v>
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
+        <v>493</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F7" si="1">D2*E2</f>
-        <v>1083.3</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>2322.0300000000002</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>1340.85</v>
+        <v>2806.53</v>
       </c>
       <c r="H2" s="8">
-        <v>1159</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -522,51 +529,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="10">
-        <v>785</v>
+        <v>975</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>257.54999999999995</v>
+        <v>484.49999999999994</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="8">
-        <v>250</v>
-      </c>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>44053</v>
+      <c r="A4" s="17">
+        <v>44109</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>2094</v>
+        <v>2324</v>
       </c>
       <c r="D4" s="10">
-        <f>SUM(C4,-C6)</f>
-        <v>197</v>
+        <f t="shared" ref="D4:D9" si="2">SUM(C4,-C6)</f>
+        <v>230</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="1"/>
-        <v>927.87</v>
+        <f t="shared" ref="F4:F9" si="3">D4*E4</f>
+        <v>1083.3</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>1101.27</v>
+        <v>1340.85</v>
       </c>
       <c r="H4" s="8">
-        <v>930</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -575,51 +580,51 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>684</v>
+        <v>785</v>
       </c>
       <c r="D5" s="10">
-        <f t="shared" si="0"/>
-        <v>68</v>
+        <f t="shared" si="2"/>
+        <v>101</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="1"/>
-        <v>173.39999999999998</v>
+        <f t="shared" si="3"/>
+        <v>257.54999999999995</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8">
-        <v>173</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44008</v>
+        <v>44053</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10">
-        <v>1897</v>
+        <v>2094</v>
       </c>
       <c r="D6" s="10">
-        <f t="shared" si="0"/>
-        <v>306</v>
+        <f>SUM(C6,-C8)</f>
+        <v>197</v>
       </c>
       <c r="E6" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="1"/>
-        <v>1373.94</v>
+        <f t="shared" si="3"/>
+        <v>927.87</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>1565.91</v>
+        <v>1101.27</v>
       </c>
       <c r="H6" s="8">
-        <v>1280</v>
+        <v>930</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -628,39 +633,52 @@
         <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>616</v>
+        <v>684</v>
       </c>
       <c r="D7" s="10">
-        <f t="shared" si="0"/>
-        <v>79</v>
+        <f t="shared" si="2"/>
+        <v>68</v>
       </c>
       <c r="E7" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="1"/>
-        <v>191.97</v>
+        <f t="shared" si="3"/>
+        <v>173.39999999999998</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43958</v>
+        <v>44008</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10">
-        <v>1591</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+        <v>1897</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="3"/>
+        <v>1373.94</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>1565.91</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1280</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -668,52 +686,106 @@
         <v>9</v>
       </c>
       <c r="C9" s="10">
+        <v>616</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="3"/>
+        <v>191.97</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>43958</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1591</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10">
         <v>537</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
+      <c r="C12" s="12"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
       <c r="B14" s="7"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/274ee.xlsx
+++ b/sputnik/personal/ee/274ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 01.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,31 +496,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44384</v>
+        <v>44417</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10">
-        <v>2817</v>
+        <v>2907</v>
       </c>
       <c r="D2" s="10">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>493</v>
+        <v>90</v>
       </c>
       <c r="E2" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>2322.0300000000002</v>
+        <v>446.4</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>2806.53</v>
+        <v>532.16</v>
       </c>
       <c r="H2" s="8">
-        <v>2808</v>
+        <v>532.16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -529,49 +529,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="10">
-        <v>975</v>
+        <v>1007</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>484.49999999999994</v>
+        <v>85.76</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>44109</v>
+        <v>44384</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>2324</v>
+        <v>2817</v>
       </c>
       <c r="D4" s="10">
-        <f t="shared" ref="D4:D9" si="2">SUM(C4,-C6)</f>
-        <v>230</v>
+        <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
+        <v>493</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F9" si="3">D4*E4</f>
-        <v>1083.3</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>2322.0300000000002</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>1340.85</v>
+        <v>2806.53</v>
       </c>
       <c r="H4" s="8">
-        <v>1159</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -580,51 +580,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>785</v>
+        <v>975</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>257.54999999999995</v>
+        <v>484.49999999999994</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="8">
-        <v>250</v>
-      </c>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>44053</v>
+      <c r="A6" s="17">
+        <v>44109</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10">
-        <v>2094</v>
+        <v>2324</v>
       </c>
       <c r="D6" s="10">
-        <f>SUM(C6,-C8)</f>
-        <v>197</v>
+        <f t="shared" ref="D6:D11" si="4">SUM(C6,-C8)</f>
+        <v>230</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="3"/>
-        <v>927.87</v>
+        <f t="shared" ref="F6:F11" si="5">D6*E6</f>
+        <v>1083.3</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>1101.27</v>
+        <v>1340.85</v>
       </c>
       <c r="H6" s="8">
-        <v>930</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -633,51 +631,51 @@
         <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>684</v>
+        <v>785</v>
       </c>
       <c r="D7" s="10">
-        <f t="shared" si="2"/>
-        <v>68</v>
+        <f t="shared" si="4"/>
+        <v>101</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="3"/>
-        <v>173.39999999999998</v>
+        <f t="shared" si="5"/>
+        <v>257.54999999999995</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8">
-        <v>173</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44008</v>
+        <v>44053</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10">
-        <v>1897</v>
+        <v>2094</v>
       </c>
       <c r="D8" s="10">
-        <f t="shared" si="2"/>
-        <v>306</v>
+        <f>SUM(C8,-C10)</f>
+        <v>197</v>
       </c>
       <c r="E8" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="3"/>
-        <v>1373.94</v>
+        <f t="shared" si="5"/>
+        <v>927.87</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>1565.91</v>
+        <v>1101.27</v>
       </c>
       <c r="H8" s="8">
-        <v>1280</v>
+        <v>930</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -686,39 +684,52 @@
         <v>9</v>
       </c>
       <c r="C9" s="10">
-        <v>616</v>
+        <v>684</v>
       </c>
       <c r="D9" s="10">
-        <f t="shared" si="2"/>
-        <v>79</v>
+        <f t="shared" si="4"/>
+        <v>68</v>
       </c>
       <c r="E9" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="3"/>
-        <v>191.97</v>
+        <f t="shared" si="5"/>
+        <v>173.39999999999998</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43958</v>
+        <v>44008</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="10">
-        <v>1591</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+        <v>1897</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="5"/>
+        <v>1373.94</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>1565.91</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1280</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -726,51 +737,84 @@
         <v>9</v>
       </c>
       <c r="C11" s="10">
+        <v>616</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="5"/>
+        <v>191.97</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>43958</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1591</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10">
         <v>537</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
+      <c r="C14" s="12"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="7"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -787,6 +831,26 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/sputnik/personal/ee/274ee.xlsx
+++ b/sputnik/personal/ee/274ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 31.10.2021\31.10.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.10.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,8 +790,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="12"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="G14" s="13">
+        <f>SUM(G2:G13)</f>
+        <v>7346.7199999999993</v>
+      </c>
+      <c r="H14" s="13">
+        <f>SUM(H2:H13)</f>
+        <v>7321.16</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
